--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-17 08:01:18</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:08:03</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:07:45</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:08:39</t>
+  </si>
+  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:03:06</t>
+  </si>
+  <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:09:03</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId2"/>
     <hyperlink ref="J2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId2"/>
     <hyperlink ref="J2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-17 08:08:03</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:12:04</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-17 08:08:39</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:11:47</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:12:41</t>
+  </si>
+  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-17 08:09:03</t>
+  </si>
+  <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:13:04</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
     <hyperlink ref="A3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId4"/>
     <hyperlink ref="J3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
     <hyperlink ref="A3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId4"/>
     <hyperlink ref="J3" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
   </si>
   <si>
-    <t>2017-02-17 08:12:04</t>
+    <t>2017-02-17 08:13:58</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,10 +163,10 @@
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:11:47</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:12:41</t>
+    <t>2017-02-17 08:13:42</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:14:43</t>
   </si>
   <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
@@ -184,7 +184,7 @@
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:13:04</t>
+    <t>2017-02-17 08:15:06</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:18:12</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 08:18:12</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-17 08:22:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-17 08:21:45</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:23:26</t>
+  </si>
+  <si>
+    <t>TestHandback_201702170423</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:19:11</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:23:50</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
   </si>
   <si>
+    <t>2017-02-17 08:32:13</t>
+  </si>
+  <si>
     <t>a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
   </si>
   <si>
@@ -166,6 +169,12 @@
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 08:31:57</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:32:51</t>
+  </si>
+  <si>
     <t>3f730501e8a860b33ab56851eabb42de4e69bd95.png</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:33:15</t>
   </si>
   <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
@@ -404,15 +416,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>14</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -37,55 +37,52 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:19</t>
+  </si>
+  <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:36:34</t>
+  </si>
+  <si>
+    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
+    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:29:57</t>
+  </si>
+  <si>
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
   </si>
   <si>
     <t>e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:38:50</t>
-  </si>
-  <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:19</t>
-  </si>
-  <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:36:34</t>
-  </si>
-  <si>
-    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
-    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:29:57</t>
+    <t>2017-02-17 08:39:39</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -151,70 +148,70 @@
     <t>False</t>
   </si>
   <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:57</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:36:17</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:37:12</t>
+  </si>
+  <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:29:40</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:30:36</t>
+  </si>
+  <si>
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.d8c3270d535368f03b776ade556e6fff3fd5e980.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:38:32</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-17 08:40:19</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:03</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:57</t>
-  </si>
-  <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:36:17</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:37:12</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:29:40</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:30:36</t>
+    <t>2017-02-17 08:39:23</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:41:29</t>
+  </si>
+  <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:35:23</t>
+  </si>
+  <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:37:38</t>
+  </si>
+  <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:31:00</t>
   </si>
   <si>
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.d8c3270d535368f03b776ade556e6fff3fd5e980.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:40:43</t>
-  </si>
-  <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:35:23</t>
-  </si>
-  <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:37:38</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:31:00</t>
+    <t>2017-02-17 08:41:52</t>
   </si>
 </sst>
 </file>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,82 +408,82 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,234 +640,234 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,234 +1024,234 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -61,183 +61,186 @@
     <t>e2e\35519432-5a42-4790-a129-857787b75d1e.md</t>
   </si>
   <si>
+    <t>2017-02-17 08:57:00</t>
+  </si>
+  <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:19</t>
+  </si>
+  <si>
+    <t>46f4930f-cefc-49dd-ad41-420a8d78c7ee.md</t>
+  </si>
+  <si>
+    <t>e2e\46f4930f-cefc-49dd-ad41-420a8d78c7ee.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:54:26</t>
+  </si>
+  <si>
+    <t>48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
+  </si>
+  <si>
+    <t>e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
+  </si>
+  <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:36:34</t>
+  </si>
+  <si>
+    <t>5f32679b-2c25-405c-9510-405bd14f3601.md</t>
+  </si>
+  <si>
+    <t>e2e\5f32679b-2c25-405c-9510-405bd14f3601.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:50:21</t>
+  </si>
+  <si>
+    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
+  </si>
+  <si>
+    <t>e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
+  </si>
+  <si>
+    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
+  </si>
+  <si>
+    <t>e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
+  </si>
+  <si>
+    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
+    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:29:57</t>
+  </si>
+  <si>
+    <t>d29d62a8-5846-4b60-b634-22ef36554ded.md</t>
+  </si>
+  <si>
+    <t>e2e\d29d62a8-5846-4b60-b634-22ef36554ded.md</t>
+  </si>
+  <si>
+    <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
+  </si>
+  <si>
+    <t>e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:39:39</t>
+  </si>
+  <si>
+    <t>f883967a-db19-40e3-8936-058244fad2a3.md</t>
+  </si>
+  <si>
+    <t>e2e\f883967a-db19-40e3-8936-058244fad2a3.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:44:07</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.83e9da73a66471378b8947de1d5e33bdbb113c01.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-17 08:53:12</t>
+  </si>
+  <si>
+    <t>API_HB_2017021753</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-17 08:56:42</t>
   </si>
   <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:19</t>
-  </si>
-  <si>
-    <t>46f4930f-cefc-49dd-ad41-420a8d78c7ee.md</t>
-  </si>
-  <si>
-    <t>e2e\46f4930f-cefc-49dd-ad41-420a8d78c7ee.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:54:26</t>
-  </si>
-  <si>
-    <t>48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
-  </si>
-  <si>
-    <t>e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
-  </si>
-  <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:36:34</t>
-  </si>
-  <si>
-    <t>5f32679b-2c25-405c-9510-405bd14f3601.md</t>
-  </si>
-  <si>
-    <t>e2e\5f32679b-2c25-405c-9510-405bd14f3601.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:50:21</t>
-  </si>
-  <si>
-    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
-  </si>
-  <si>
-    <t>e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
-  </si>
-  <si>
-    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
-  </si>
-  <si>
-    <t>e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
-  </si>
-  <si>
-    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
-    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:29:57</t>
-  </si>
-  <si>
-    <t>d29d62a8-5846-4b60-b634-22ef36554ded.md</t>
-  </si>
-  <si>
-    <t>e2e\d29d62a8-5846-4b60-b634-22ef36554ded.md</t>
-  </si>
-  <si>
-    <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
-  </si>
-  <si>
-    <t>e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:39:39</t>
-  </si>
-  <si>
-    <t>f883967a-db19-40e3-8936-058244fad2a3.md</t>
-  </si>
-  <si>
-    <t>e2e\f883967a-db19-40e3-8936-058244fad2a3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:44:07</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.83e9da73a66471378b8947de1d5e33bdbb113c01.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-17 08:53:12</t>
-  </si>
-  <si>
-    <t>API_HB_2017021753</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-17 08:57:43</t>
   </si>
   <si>
@@ -322,6 +325,15 @@
     <t>2017-02-17 08:44:55</t>
   </si>
   <si>
+    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:58:38</t>
+  </si>
+  <si>
+    <t>API_HB2_2017021758</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
@@ -332,6 +344,9 @@
   </si>
   <si>
     <t>2017-02-17 08:55:24</t>
+  </si>
+  <si>
+    <t>48e33266-ac25-43a9-a149-3d80245f3da4.6c9f5545f32f99cb2339cee90ba96d01655d1957.de-de.xlf</t>
   </si>
   <si>
     <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
@@ -451,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -567,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -627,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1000,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>69</v>
@@ -1012,10 +1027,10 @@
         <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>69</v>
@@ -1053,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>69</v>
@@ -1065,10 +1080,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>69</v>
@@ -1109,10 +1124,10 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>69</v>
@@ -1121,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>69</v>
@@ -1165,10 +1180,10 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>69</v>
@@ -1177,13 +1192,13 @@
         <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>69</v>
@@ -1221,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>69</v>
@@ -1233,10 +1248,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>69</v>
@@ -1277,10 +1292,10 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>69</v>
@@ -1289,13 +1304,13 @@
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>69</v>
@@ -1333,7 +1348,7 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1345,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>70</v>
@@ -1389,10 +1404,10 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>69</v>
@@ -1401,13 +1416,13 @@
         <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>69</v>
@@ -1445,10 +1460,10 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>69</v>
@@ -1457,10 +1472,10 @@
         <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>69</v>
@@ -1501,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>69</v>
@@ -1513,10 +1528,10 @@
         <v>36</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>69</v>
@@ -1557,10 +1572,10 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>69</v>
@@ -1569,10 +1584,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>69</v>
@@ -1613,10 +1628,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>69</v>
@@ -1625,10 +1640,10 @@
         <v>41</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>69</v>
@@ -1669,10 +1684,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>69</v>
@@ -1681,10 +1696,10 @@
         <v>44</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>69</v>
@@ -1745,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,7 +1844,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -1847,25 +1862,25 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>69</v>
@@ -1885,7 +1900,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1903,22 +1918,22 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>69</v>
@@ -1941,7 +1956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1959,22 +1974,22 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>69</v>
@@ -1997,7 +2012,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2015,25 +2030,25 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>69</v>
@@ -2053,7 +2068,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2071,25 +2086,25 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>69</v>
@@ -2109,7 +2124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2127,25 +2142,25 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>69</v>
@@ -2165,7 +2180,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2183,25 +2198,25 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>69</v>
@@ -2221,7 +2236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2239,22 +2254,22 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>69</v>
@@ -2277,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2295,22 +2310,22 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>69</v>
@@ -2333,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2351,64 +2366,180 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="0" t="s">
+      <c r="K13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId21"/>
+    <hyperlink ref="A2" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:07:51</t>
+    <t>2017-02-17 09:09:58</t>
   </si>
   <si>
     <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
@@ -133,13 +133,13 @@
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:07:33</t>
+    <t>2017-02-17 09:09:41</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:08:27</t>
+    <t>2017-02-17 09:10:35</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:08:52</t>
+    <t>2017-02-17 09:10:59</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:09:58</t>
+    <t>2017-02-17 09:12:10</t>
   </si>
   <si>
     <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
@@ -133,13 +133,13 @@
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:09:41</t>
+    <t>2017-02-17 09:11:50</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:10:35</t>
+    <t>2017-02-17 09:12:49</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:10:59</t>
+    <t>2017-02-17 09:13:12</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
+  </si>
+  <si>
+    <t>e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:12:10</t>
-  </si>
-  <si>
-    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:56</t>
-  </si>
-  <si>
-    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+    <t>2017-02-17 09:14:23</t>
+  </si>
+  <si>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
+  </si>
+  <si>
+    <t>e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:11:50</t>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:14:06</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:12:49</t>
+    <t>2017-02-17 09:15:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:41</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:05:37</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:13:12</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:06:00</t>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:15:25</t>
+  </si>
+  <si>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
-  </si>
-  <si>
-    <t>e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
+    <t>31919597-49f0-4bd7-94a7-6977a4835286.md</t>
+  </si>
+  <si>
+    <t>e2e\31919597-49f0-4bd7-94a7-6977a4835286.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:14:23</t>
-  </si>
-  <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
-  </si>
-  <si>
-    <t>e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
+    <t>2017-02-17 09:20:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:14:06</t>
+    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:20:42</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:15:00</t>
+    <t>2017-02-17 09:21:42</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:15:25</t>
-  </si>
-  <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.de-de.xlf</t>
+    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:22:05</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.md</t>
-  </si>
-  <si>
-    <t>e2e\31919597-49f0-4bd7-94a7-6977a4835286.md</t>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
+  </si>
+  <si>
+    <t>e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:20:59</t>
+    <t>2017-02-17 09:26:37</t>
+  </si>
+  <si>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
+  </si>
+  <si>
+    <t>e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:27:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:20:42</t>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:26:22</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:21:42</t>
+    <t>2017-02-17 09:28:19</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:22:05</t>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:27:20</t>
+  </si>
+  <si>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:28:43</t>
+  </si>
+  <si>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+  </si>
+  <si>
+    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:32:20</t>
+  </si>
+  <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
   </si>
   <si>
     <t>e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:32:20</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
-  </si>
-  <si>
-    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+    <t>2017-02-17 09:34:19</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +127,40 @@
     <t>False</t>
   </si>
   <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:32:02</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-17 09:32:52</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:32:02</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-17 09:32:52</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
+    <t>2017-02-17 09:33:59</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:34:52</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:33:15</t>
   </si>
   <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:33:15</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
+    <t>2017-02-17 09:35:15</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,19 +357,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,60 +526,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,60 +736,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-17 09:34:19</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:36:07</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-17 09:34:52</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:35:50</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:36:44</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:37:08</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -37,18 +37,27 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:38:05</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
     <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 09:32:20</t>
   </si>
   <si>
@@ -64,15 +73,6 @@
     <t>2017-02-17 09:34:19</t>
   </si>
   <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:36:07</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,21 +136,30 @@
     <t>False</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:37:49</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-17 09:39:25</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:32:02</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-02-17 09:32:52</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
   </si>
   <si>
@@ -160,13 +169,10 @@
     <t>2017-02-17 09:34:52</t>
   </si>
   <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:35:50</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:36:44</t>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:39:48</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
@@ -179,12 +185,6 @@
   </si>
   <si>
     <t>2017-02-17 09:35:15</t>
-  </si>
-  <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:37:08</t>
   </si>
 </sst>
 </file>
@@ -381,30 +381,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -412,9 +412,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -648,7 +648,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>48</v>
@@ -677,12 +677,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -854,7 +854,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>42</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -916,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>55</v>
@@ -945,12 +945,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,15 @@
     <t>2017-02-17 09:34:19</t>
   </si>
   <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:53</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -169,6 +178,15 @@
     <t>2017-02-17 09:34:52</t>
   </si>
   <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:33</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:41:29</t>
+  </si>
+  <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
   </si>
   <si>
@@ -185,6 +203,12 @@
   </si>
   <si>
     <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:41:54</t>
   </si>
 </sst>
 </file>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +434,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +498,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +563,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +619,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -630,49 +675,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -683,6 +784,8 @@
     <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
     <hyperlink ref="A4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId6"/>
     <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +824,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +889,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +945,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -898,49 +1001,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +1110,8 @@
     <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
     <hyperlink ref="A4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId6"/>
     <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -82,6 +82,33 @@
     <t>2017-02-17 09:40:53</t>
   </si>
   <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:18</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -187,6 +214,24 @@
     <t>2017-02-17 09:41:29</t>
   </si>
   <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:01</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:31</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
   </si>
   <si>
@@ -209,6 +254,21 @@
   </si>
   <si>
     <t>2017-02-17 09:41:54</t>
+  </si>
+  <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:53</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,12 +514,96 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -470,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,58 +642,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -563,49 +707,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -619,49 +763,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -675,49 +819,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -731,49 +875,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +1154,14 @@
     <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
     <hyperlink ref="A5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId8"/>
     <hyperlink ref="J5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -796,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,58 +1200,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -889,49 +1265,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -945,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1001,49 +1377,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1057,49 +1433,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1112,6 +1712,14 @@
     <hyperlink ref="J4" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId7"/>
     <hyperlink ref="A5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId8"/>
     <hyperlink ref="J5" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:56:26</t>
+    <t>2017-02-17 09:58:33</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
@@ -115,7 +115,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -124,13 +124,13 @@
     <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:56:08</t>
+    <t>2017-02-17 09:58:16</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-17 09:57:02</t>
+    <t>2017-02-17 09:59:08</t>
   </si>
   <si>
     <t>True</t>
@@ -142,7 +142,7 @@
     <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:57:26</t>
+    <t>2017-02-17 09:59:33</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
